--- a/Turma Maio 2017/Aula 5/Procv 3 com validação e nome de tabela.xlsx
+++ b/Turma Maio 2017/Aula 5/Procv 3 com validação e nome de tabela.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17927"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18067"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marcio\Desktop\Marcio Projetos\Aula 1\turma novembro\Aula 3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marcio\Desktop\TeachX.git\trunk\Turma Maio 2017\Aula 5\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -13,6 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
+    <sheet name="Planilha1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="84">
   <si>
     <t>Nome</t>
   </si>
@@ -240,6 +241,42 @@
   </si>
   <si>
     <t>&lt; Validação de dados</t>
+  </si>
+  <si>
+    <t>janeiro</t>
+  </si>
+  <si>
+    <t>fevereiro</t>
+  </si>
+  <si>
+    <t>março</t>
+  </si>
+  <si>
+    <t>abril</t>
+  </si>
+  <si>
+    <t>maio</t>
+  </si>
+  <si>
+    <t>junho</t>
+  </si>
+  <si>
+    <t>julho</t>
+  </si>
+  <si>
+    <t>agosto</t>
+  </si>
+  <si>
+    <t>setembro</t>
+  </si>
+  <si>
+    <t>outubro</t>
+  </si>
+  <si>
+    <t>novembro</t>
+  </si>
+  <si>
+    <t>dezembro</t>
   </si>
 </sst>
 </file>
@@ -691,8 +728,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19:C23"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -990,7 +1027,9 @@
       <c r="B19" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C19" s="2"/>
+      <c r="C19" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="D19" t="s">
         <v>71</v>
       </c>
@@ -1002,7 +1041,10 @@
       <c r="B20" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C20" s="2"/>
+      <c r="C20" s="2" t="str">
+        <f>VLOOKUP($C$19,Tabela1[],2,FALSE)</f>
+        <v>Rodovia Anhanguera, km 180</v>
+      </c>
       <c r="D20" t="s">
         <v>70</v>
       </c>
@@ -1014,7 +1056,10 @@
       <c r="B21" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C21" s="2"/>
+      <c r="C21" s="2" t="str">
+        <f>VLOOKUP($C$19,Tabela1[],3,FALSE)</f>
+        <v>Centro</v>
+      </c>
       <c r="D21" t="s">
         <v>70</v>
       </c>
@@ -1023,7 +1068,10 @@
       <c r="B22" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C22" s="2"/>
+      <c r="C22" s="2" t="str">
+        <f>VLOOKUP($C$19,Tabela1[],4,FALSE)</f>
+        <v>Leme</v>
+      </c>
       <c r="D22" t="s">
         <v>70</v>
       </c>
@@ -1032,16 +1080,110 @@
       <c r="B23" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C23" s="2"/>
+      <c r="C23" s="2" t="str">
+        <f>VLOOKUP($C$19,Tabela1[],5,FALSE)</f>
+        <v>SP</v>
+      </c>
       <c r="D23" t="s">
         <v>70</v>
       </c>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C18:C19">
+      <formula1>$A$2:$A$16</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:D13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>83</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2">
+      <formula1>$B$2:$B$13</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2">
+      <formula1>"Marte,Jupter, Saturno, venus, mercurio, plutão"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>